--- a/biology/Botanique/Hugo_Dahlstedt/Hugo_Dahlstedt.xlsx
+++ b/biology/Botanique/Hugo_Dahlstedt/Hugo_Dahlstedt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustav Adolf Hugo Dahlstedt, né le 8 février 1856 à Linköping et mort le 2 octobre 1934 à Lidingö, est un botaniste suédois qui a longtemps travaillé au Jardin botanique de Bergius (en) à Stockholm et a été l'auteur de nombreuses publications. Il s'est notamment consacré à l'étude des genres Taraxacum et Hieracium.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hugo Dahlstedt obtient son titre de docteur honoris causa en botanique de l'université d'Uppsala en 1907. Il travaille au muséum suédois d'histoire naturelle de 1890 à 1915, et au jardin botanique de Bergius de 1890 à 1905, puis il devient assistant-directeur du jardin botanique de Bergius de 1915 à 1925.
 </t>
@@ -542,7 +556,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2012. Studien über süd-und central-americkanische: Peperomien mit besonderer Berücksichtigung der brasilianischen Sippen... Ed. réimpression de BiblioBazaar, 284 pp.  (ISBN 1276520077)
 1921. De svenska Arterna av släktet Taraxacum: Erythrosperma. Obliqua. 82 pp.
@@ -575,13 +591,15 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Genre
-(Faboideae) Dahlstedtia Malme[1]
+(Faboideae) Dahlstedtia Malme
 Espèces
-(Asteraceae) Taraxacum dahlstedtii H.Lindb.[2]
-(Piperaceae) Peperomia dahlstedtii C.DC.[3]</t>
+(Asteraceae) Taraxacum dahlstedtii H.Lindb.
+(Piperaceae) Peperomia dahlstedtii C.DC.</t>
         </is>
       </c>
     </row>
